--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H2">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.003643333333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N2">
-        <v>0.01093</v>
+        <v>0.027103</v>
       </c>
       <c r="O2">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P2">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q2">
-        <v>6.880435000000001E-05</v>
+        <v>0.0004988909438888888</v>
       </c>
       <c r="R2">
-        <v>0.0006192391500000001</v>
+        <v>0.004490018494999999</v>
       </c>
       <c r="S2">
-        <v>8.432688538258628E-05</v>
+        <v>0.003296579104897126</v>
       </c>
       <c r="T2">
-        <v>8.432688538258628E-05</v>
+        <v>0.003296579104897126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H3">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2626486666666666</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N3">
-        <v>0.7879459999999999</v>
+        <v>0.552325</v>
       </c>
       <c r="O3">
-        <v>0.1730426339947982</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P3">
-        <v>0.1730426339947983</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q3">
-        <v>0.00496012007</v>
+        <v>0.01016676901388889</v>
       </c>
       <c r="R3">
-        <v>0.04464108063</v>
+        <v>0.09150092112499998</v>
       </c>
       <c r="S3">
-        <v>0.006079142912137906</v>
+        <v>0.06718012965768752</v>
       </c>
       <c r="T3">
-        <v>0.006079142912137907</v>
+        <v>0.06718012965768752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H4">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5169776666666667</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N4">
-        <v>1.550933</v>
+        <v>0.271372</v>
       </c>
       <c r="O4">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P4">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q4">
-        <v>0.009763123235000001</v>
+        <v>0.004995204708888888</v>
       </c>
       <c r="R4">
-        <v>0.087868109115</v>
+        <v>0.04495684237999999</v>
       </c>
       <c r="S4">
-        <v>0.01196572271976859</v>
+        <v>0.03300738902904265</v>
       </c>
       <c r="T4">
-        <v>0.01196572271976859</v>
+        <v>0.03300738902904265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H5">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03064833333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N5">
-        <v>0.091945</v>
+        <v>0.486052</v>
       </c>
       <c r="O5">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P5">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q5">
-        <v>0.000578793775</v>
+        <v>0.008946867175555553</v>
       </c>
       <c r="R5">
-        <v>0.005209143975</v>
+        <v>0.08052180457999998</v>
       </c>
       <c r="S5">
-        <v>0.0007093719557641258</v>
+        <v>0.05911924388788908</v>
       </c>
       <c r="T5">
-        <v>0.0007093719557641259</v>
+        <v>0.05911924388788908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.018885</v>
+        <v>0.166264</v>
       </c>
       <c r="H6">
-        <v>0.056655</v>
+        <v>0.498792</v>
       </c>
       <c r="I6">
-        <v>0.03513089677264534</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J6">
-        <v>0.03513089677264534</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7039083333333332</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N6">
-        <v>2.111725</v>
+        <v>0.027103</v>
       </c>
       <c r="O6">
-        <v>0.4637607859836402</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P6">
-        <v>0.4637607859836402</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q6">
-        <v>0.013293308875</v>
+        <v>0.001502084397333333</v>
       </c>
       <c r="R6">
-        <v>0.119639779875</v>
+        <v>0.013518759576</v>
       </c>
       <c r="S6">
-        <v>0.01629233229959213</v>
+        <v>0.009925495939938113</v>
       </c>
       <c r="T6">
-        <v>0.01629233229959213</v>
+        <v>0.009925495939938113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>0.498792</v>
       </c>
       <c r="I7">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J7">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.003643333333333333</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N7">
-        <v>0.01093</v>
+        <v>0.552325</v>
       </c>
       <c r="O7">
-        <v>0.002400362448141301</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P7">
-        <v>0.002400362448141301</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q7">
-        <v>0.0006057551733333334</v>
+        <v>0.03061058793333333</v>
       </c>
       <c r="R7">
-        <v>0.00545179656</v>
+        <v>0.2754952914</v>
       </c>
       <c r="S7">
-        <v>0.0007424159529388574</v>
+        <v>0.2022691047126266</v>
       </c>
       <c r="T7">
-        <v>0.0007424159529388576</v>
+        <v>0.2022691047126266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>0.498792</v>
       </c>
       <c r="I8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2626486666666666</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N8">
-        <v>0.7879459999999999</v>
+        <v>0.271372</v>
       </c>
       <c r="O8">
-        <v>0.1730426339947982</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P8">
-        <v>0.1730426339947983</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q8">
-        <v>0.04366901791466666</v>
+        <v>0.01503979806933333</v>
       </c>
       <c r="R8">
-        <v>0.393021161232</v>
+        <v>0.135358182624</v>
       </c>
       <c r="S8">
-        <v>0.05352092227395799</v>
+        <v>0.09938020456085621</v>
       </c>
       <c r="T8">
-        <v>0.05352092227395801</v>
+        <v>0.09938020456085621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>0.498792</v>
       </c>
       <c r="I9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5169776666666667</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N9">
-        <v>1.550933</v>
+        <v>0.486052</v>
       </c>
       <c r="O9">
-        <v>0.3406039645730221</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P9">
-        <v>0.3406039645730221</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q9">
-        <v>0.08595477477066667</v>
+        <v>0.02693764990933333</v>
       </c>
       <c r="R9">
-        <v>0.7735929729359999</v>
+        <v>0.242438849184</v>
       </c>
       <c r="S9">
-        <v>0.1053465142853908</v>
+        <v>0.177999009430646</v>
       </c>
       <c r="T9">
-        <v>0.1053465142853908</v>
+        <v>0.1779990094306461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,25 +1030,25 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.166264</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H10">
-        <v>0.498792</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I10">
-        <v>0.3092932709032091</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J10">
-        <v>0.3092932709032091</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03064833333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N10">
-        <v>0.091945</v>
+        <v>0.027103</v>
       </c>
       <c r="O10">
-        <v>0.02019225300039816</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P10">
-        <v>0.02019225300039816</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q10">
-        <v>0.005095714493333333</v>
+        <v>0.0002475738592222222</v>
       </c>
       <c r="R10">
-        <v>0.04586143044</v>
+        <v>0.002228164733</v>
       </c>
       <c r="S10">
-        <v>0.006245327977398283</v>
+        <v>0.001635922281669017</v>
       </c>
       <c r="T10">
-        <v>0.006245327977398286</v>
+        <v>0.001635922281669017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.166264</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H11">
-        <v>0.498792</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I11">
-        <v>0.3092932709032091</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J11">
-        <v>0.3092932709032091</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7039083333333332</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N11">
-        <v>2.111725</v>
+        <v>0.552325</v>
       </c>
       <c r="O11">
-        <v>0.4637607859836402</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P11">
-        <v>0.4637607859836402</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q11">
-        <v>0.1170346151333333</v>
+        <v>0.005045243397222223</v>
       </c>
       <c r="R11">
-        <v>1.0533115362</v>
+        <v>0.045407190575</v>
       </c>
       <c r="S11">
-        <v>0.1434380904135232</v>
+        <v>0.03333803542865512</v>
       </c>
       <c r="T11">
-        <v>0.1434380904135232</v>
+        <v>0.03333803542865511</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H12">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I12">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J12">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.003643333333333333</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N12">
-        <v>0.01093</v>
+        <v>0.271372</v>
       </c>
       <c r="O12">
-        <v>0.002400362448141301</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P12">
-        <v>0.002400362448141301</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q12">
-        <v>0.00040052985</v>
+        <v>0.002478862610222223</v>
       </c>
       <c r="R12">
-        <v>0.00360476865</v>
+        <v>0.022309763492</v>
       </c>
       <c r="S12">
-        <v>0.0004908909793240467</v>
+        <v>0.016379865749957</v>
       </c>
       <c r="T12">
-        <v>0.0004908909793240467</v>
+        <v>0.01637986574995699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H13">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I13">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J13">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,95 +1243,95 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2626486666666666</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N13">
-        <v>0.7879459999999999</v>
+        <v>0.486052</v>
       </c>
       <c r="O13">
-        <v>0.1730426339947982</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P13">
-        <v>0.1730426339947983</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q13">
-        <v>0.02887428117</v>
+        <v>0.004439868996888889</v>
       </c>
       <c r="R13">
-        <v>0.25986853053</v>
+        <v>0.039958820972</v>
       </c>
       <c r="S13">
-        <v>0.03538843399766379</v>
+        <v>0.02933783333394048</v>
       </c>
       <c r="T13">
-        <v>0.0353884339976638</v>
+        <v>0.02933783333394048</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.046975</v>
+      </c>
+      <c r="H14">
+        <v>0.140925</v>
+      </c>
+      <c r="I14">
+        <v>0.1383205621355497</v>
+      </c>
+      <c r="J14">
+        <v>0.1383205621355497</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.109935</v>
-      </c>
-      <c r="H14">
-        <v>0.329805</v>
-      </c>
-      <c r="I14">
-        <v>0.2045070233889735</v>
-      </c>
-      <c r="J14">
-        <v>0.2045070233889735</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>0.5169776666666667</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N14">
-        <v>1.550933</v>
+        <v>0.027103</v>
       </c>
       <c r="O14">
-        <v>0.3406039645730221</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P14">
-        <v>0.3406039645730221</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q14">
-        <v>0.056833939785</v>
+        <v>0.0004243878083333333</v>
       </c>
       <c r="R14">
-        <v>0.511505458065</v>
+        <v>0.003819490275</v>
       </c>
       <c r="S14">
-        <v>0.06965590294931213</v>
+        <v>0.002804276161878655</v>
       </c>
       <c r="T14">
-        <v>0.06965590294931215</v>
+        <v>0.002804276161878655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.109935</v>
+        <v>0.046975</v>
       </c>
       <c r="H15">
-        <v>0.329805</v>
+        <v>0.140925</v>
       </c>
       <c r="I15">
-        <v>0.2045070233889735</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J15">
-        <v>0.2045070233889735</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.03064833333333333</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N15">
-        <v>0.091945</v>
+        <v>0.552325</v>
       </c>
       <c r="O15">
-        <v>0.02019225300039816</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P15">
-        <v>0.02019225300039816</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q15">
-        <v>0.003369324525</v>
+        <v>0.008648488958333332</v>
       </c>
       <c r="R15">
-        <v>0.030323920725</v>
+        <v>0.077836400625</v>
       </c>
       <c r="S15">
-        <v>0.004129457556628496</v>
+        <v>0.05714761580303392</v>
       </c>
       <c r="T15">
-        <v>0.004129457556628498</v>
+        <v>0.05714761580303392</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.046975</v>
+      </c>
+      <c r="H16">
+        <v>0.140925</v>
+      </c>
+      <c r="I16">
+        <v>0.1383205621355497</v>
+      </c>
+      <c r="J16">
+        <v>0.1383205621355497</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.109935</v>
-      </c>
-      <c r="H16">
-        <v>0.329805</v>
-      </c>
-      <c r="I16">
-        <v>0.2045070233889735</v>
-      </c>
-      <c r="J16">
-        <v>0.2045070233889735</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.7039083333333332</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N16">
-        <v>2.111725</v>
+        <v>0.271372</v>
       </c>
       <c r="O16">
-        <v>0.4637607859836402</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P16">
-        <v>0.4637607859836402</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q16">
-        <v>0.07738416262499999</v>
+        <v>0.004249233233333333</v>
       </c>
       <c r="R16">
-        <v>0.6964574636249999</v>
+        <v>0.0382430991</v>
       </c>
       <c r="S16">
-        <v>0.09484233790604504</v>
+        <v>0.02807814745974005</v>
       </c>
       <c r="T16">
-        <v>0.09484233790604506</v>
+        <v>0.02807814745974005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H17">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I17">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J17">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.003643333333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N17">
-        <v>0.01093</v>
+        <v>0.486052</v>
       </c>
       <c r="O17">
-        <v>0.002400362448141301</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P17">
-        <v>0.002400362448141301</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q17">
-        <v>0.0005482573011111111</v>
+        <v>0.007610764233333332</v>
       </c>
       <c r="R17">
-        <v>0.00493431571</v>
+        <v>0.06849687809999999</v>
       </c>
       <c r="S17">
-        <v>0.0006719463317502854</v>
+        <v>0.0502905227108971</v>
       </c>
       <c r="T17">
-        <v>0.0006719463317502854</v>
+        <v>0.05029052271089711</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,57 +1529,57 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1504823333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H18">
-        <v>0.451447</v>
+        <v>0.032238</v>
       </c>
       <c r="I18">
-        <v>0.2799353623743785</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J18">
-        <v>0.2799353623743785</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.2626486666666666</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N18">
-        <v>0.7879459999999999</v>
+        <v>0.027103</v>
       </c>
       <c r="O18">
-        <v>0.1730426339947982</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P18">
-        <v>0.1730426339947983</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q18">
-        <v>0.03952398420688889</v>
+        <v>9.7082946E-05</v>
       </c>
       <c r="R18">
-        <v>0.3557158578619999</v>
+        <v>0.000873746514</v>
       </c>
       <c r="S18">
-        <v>0.0484407524535508</v>
+        <v>0.0006415061550941573</v>
       </c>
       <c r="T18">
-        <v>0.04844075245355081</v>
+        <v>0.0006415061550941573</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1504823333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H19">
-        <v>0.451447</v>
+        <v>0.032238</v>
       </c>
       <c r="I19">
-        <v>0.2799353623743785</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J19">
-        <v>0.2799353623743785</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5169776666666667</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N19">
-        <v>1.550933</v>
+        <v>0.552325</v>
       </c>
       <c r="O19">
-        <v>0.3406039645730221</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P19">
-        <v>0.3406039645730221</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q19">
-        <v>0.07779600556122222</v>
+        <v>0.00197842815</v>
       </c>
       <c r="R19">
-        <v>0.7001640500509999</v>
+        <v>0.01780585335</v>
       </c>
       <c r="S19">
-        <v>0.09534709424889894</v>
+        <v>0.01307308737454822</v>
       </c>
       <c r="T19">
-        <v>0.09534709424889894</v>
+        <v>0.01307308737454822</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1504823333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H20">
-        <v>0.451447</v>
+        <v>0.032238</v>
       </c>
       <c r="I20">
-        <v>0.2799353623743785</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J20">
-        <v>0.2799353623743785</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,33 +1677,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.03064833333333333</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N20">
-        <v>0.091945</v>
+        <v>0.271372</v>
       </c>
       <c r="O20">
-        <v>0.02019225300039816</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P20">
-        <v>0.02019225300039816</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q20">
-        <v>0.004612032712777777</v>
+        <v>0.000972054504</v>
       </c>
       <c r="R20">
-        <v>0.041508294415</v>
+        <v>0.008748490536000001</v>
       </c>
       <c r="S20">
-        <v>0.00565252566082159</v>
+        <v>0.006423156415164803</v>
       </c>
       <c r="T20">
-        <v>0.005652525660821591</v>
+        <v>0.006423156415164803</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1504823333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H21">
-        <v>0.451447</v>
+        <v>0.032238</v>
       </c>
       <c r="I21">
-        <v>0.2799353623743785</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J21">
-        <v>0.2799353623743785</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.7039083333333332</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N21">
-        <v>2.111725</v>
+        <v>0.486052</v>
       </c>
       <c r="O21">
-        <v>0.4637607859836402</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P21">
-        <v>0.4637607859836402</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q21">
-        <v>0.1059257684527778</v>
+        <v>0.001741038264</v>
       </c>
       <c r="R21">
-        <v>0.9533319160749999</v>
+        <v>0.015669344376</v>
       </c>
       <c r="S21">
-        <v>0.1298230436793569</v>
+        <v>0.01150445890476424</v>
       </c>
       <c r="T21">
-        <v>0.129823043679357</v>
+        <v>0.01150445890476425</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.01327133333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H22">
-        <v>0.039814</v>
+        <v>0.098998</v>
       </c>
       <c r="I22">
-        <v>0.02468805090647076</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J22">
-        <v>0.02468805090647077</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,33 +1801,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.003643333333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N22">
-        <v>0.01093</v>
+        <v>0.027103</v>
       </c>
       <c r="O22">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P22">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q22">
-        <v>4.835189111111111E-05</v>
+        <v>0.0002981269771111111</v>
       </c>
       <c r="R22">
-        <v>0.00043516702</v>
+        <v>0.002683142794</v>
       </c>
       <c r="S22">
-        <v>5.926027031369321E-05</v>
+        <v>0.001969967936658954</v>
       </c>
       <c r="T22">
-        <v>5.926027031369322E-05</v>
+        <v>0.001969967936658954</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.01327133333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H23">
-        <v>0.039814</v>
+        <v>0.098998</v>
       </c>
       <c r="I23">
-        <v>0.02468805090647076</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J23">
-        <v>0.02468805090647077</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2626486666666666</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N23">
-        <v>0.7879459999999999</v>
+        <v>0.552325</v>
       </c>
       <c r="O23">
-        <v>0.1730426339947982</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P23">
-        <v>0.1730426339947983</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q23">
-        <v>0.003485698004888888</v>
+        <v>0.00607545226111111</v>
       </c>
       <c r="R23">
-        <v>0.03137128204399999</v>
+        <v>0.05467907035</v>
       </c>
       <c r="S23">
-        <v>0.004272085357053367</v>
+        <v>0.04014546510036368</v>
       </c>
       <c r="T23">
-        <v>0.004272085357053369</v>
+        <v>0.04014546510036368</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.03299933333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.098998</v>
+      </c>
+      <c r="I24">
+        <v>0.09716841589707399</v>
+      </c>
+      <c r="J24">
+        <v>0.09716841589707399</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G24">
-        <v>0.01327133333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.039814</v>
-      </c>
-      <c r="I24">
-        <v>0.02468805090647076</v>
-      </c>
-      <c r="J24">
-        <v>0.02468805090647077</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
       <c r="M24">
-        <v>0.5169776666666667</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N24">
-        <v>1.550933</v>
+        <v>0.271372</v>
       </c>
       <c r="O24">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P24">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q24">
-        <v>0.006860982940222221</v>
+        <v>0.002985031695111111</v>
       </c>
       <c r="R24">
-        <v>0.06174884646199999</v>
+        <v>0.026865285256</v>
       </c>
       <c r="S24">
-        <v>0.008408848016324534</v>
+        <v>0.01972453746474611</v>
       </c>
       <c r="T24">
-        <v>0.008408848016324535</v>
+        <v>0.01972453746474611</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,427 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.01327133333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H25">
-        <v>0.039814</v>
+        <v>0.098998</v>
       </c>
       <c r="I25">
-        <v>0.02468805090647076</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J25">
-        <v>0.02468805090647077</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.03064833333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N25">
-        <v>0.091945</v>
+        <v>0.486052</v>
       </c>
       <c r="O25">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P25">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q25">
-        <v>0.0004067442477777777</v>
+        <v>0.005346463988444444</v>
       </c>
       <c r="R25">
-        <v>0.00366069823</v>
+        <v>0.048118175896</v>
       </c>
       <c r="S25">
-        <v>0.0004985073699901667</v>
+        <v>0.03532844539530525</v>
       </c>
       <c r="T25">
-        <v>0.0004985073699901669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.01327133333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.039814</v>
-      </c>
-      <c r="I26">
-        <v>0.02468805090647076</v>
-      </c>
-      <c r="J26">
-        <v>0.02468805090647077</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.7039083333333332</v>
-      </c>
-      <c r="N26">
-        <v>2.111725</v>
-      </c>
-      <c r="O26">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="P26">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="Q26">
-        <v>0.009341802127777776</v>
-      </c>
-      <c r="R26">
-        <v>0.08407621914999998</v>
-      </c>
-      <c r="S26">
-        <v>0.011449349892789</v>
-      </c>
-      <c r="T26">
-        <v>0.011449349892789</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.07872333333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.23617</v>
-      </c>
-      <c r="I27">
-        <v>0.1464453956543226</v>
-      </c>
-      <c r="J27">
-        <v>0.1464453956543226</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M27">
-        <v>0.003643333333333333</v>
-      </c>
-      <c r="N27">
-        <v>0.01093</v>
-      </c>
-      <c r="O27">
-        <v>0.002400362448141301</v>
-      </c>
-      <c r="P27">
-        <v>0.002400362448141301</v>
-      </c>
-      <c r="Q27">
-        <v>0.0002868153444444444</v>
-      </c>
-      <c r="R27">
-        <v>0.0025813381</v>
-      </c>
-      <c r="S27">
-        <v>0.0003515220284318312</v>
-      </c>
-      <c r="T27">
-        <v>0.0003515220284318313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.07872333333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.23617</v>
-      </c>
-      <c r="I28">
-        <v>0.1464453956543226</v>
-      </c>
-      <c r="J28">
-        <v>0.1464453956543226</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.2626486666666666</v>
-      </c>
-      <c r="N28">
-        <v>0.7879459999999999</v>
-      </c>
-      <c r="O28">
-        <v>0.1730426339947982</v>
-      </c>
-      <c r="P28">
-        <v>0.1730426339947983</v>
-      </c>
-      <c r="Q28">
-        <v>0.02067657853555555</v>
-      </c>
-      <c r="R28">
-        <v>0.18608920682</v>
-      </c>
-      <c r="S28">
-        <v>0.02534129700043436</v>
-      </c>
-      <c r="T28">
-        <v>0.02534129700043437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.07872333333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.23617</v>
-      </c>
-      <c r="I29">
-        <v>0.1464453956543226</v>
-      </c>
-      <c r="J29">
-        <v>0.1464453956543226</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.5169776666666667</v>
-      </c>
-      <c r="N29">
-        <v>1.550933</v>
-      </c>
-      <c r="O29">
-        <v>0.3406039645730221</v>
-      </c>
-      <c r="P29">
-        <v>0.3406039645730221</v>
-      </c>
-      <c r="Q29">
-        <v>0.04069820517888888</v>
-      </c>
-      <c r="R29">
-        <v>0.36628384661</v>
-      </c>
-      <c r="S29">
-        <v>0.0498798823533271</v>
-      </c>
-      <c r="T29">
-        <v>0.04987988235332711</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.07872333333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.23617</v>
-      </c>
-      <c r="I30">
-        <v>0.1464453956543226</v>
-      </c>
-      <c r="J30">
-        <v>0.1464453956543226</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.03064833333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.091945</v>
-      </c>
-      <c r="O30">
-        <v>0.02019225300039816</v>
-      </c>
-      <c r="P30">
-        <v>0.02019225300039816</v>
-      </c>
-      <c r="Q30">
-        <v>0.002412738961111111</v>
-      </c>
-      <c r="R30">
-        <v>0.02171465065</v>
-      </c>
-      <c r="S30">
-        <v>0.002957062479795491</v>
-      </c>
-      <c r="T30">
-        <v>0.002957062479795492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.07872333333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.23617</v>
-      </c>
-      <c r="I31">
-        <v>0.1464453956543226</v>
-      </c>
-      <c r="J31">
-        <v>0.1464453956543226</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.7039083333333332</v>
-      </c>
-      <c r="N31">
-        <v>2.111725</v>
-      </c>
-      <c r="O31">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="P31">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="Q31">
-        <v>0.0554140103611111</v>
-      </c>
-      <c r="R31">
-        <v>0.4987260932499999</v>
-      </c>
-      <c r="S31">
-        <v>0.06791563179233381</v>
-      </c>
-      <c r="T31">
-        <v>0.06791563179233384</v>
+        <v>0.03532844539530525</v>
       </c>
     </row>
   </sheetData>
